--- a/DCFLCreditReferenceCenter/Data/Config.xlsx
+++ b/DCFLCreditReferenceCenter/Data/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCreditReferenceCenter\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE2BF9C-2C1B-4587-96C6-8B0EF61995B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="588" windowWidth="17952" windowHeight="6492"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -163,21 +169,6 @@
   </si>
   <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RSURL</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.zhongdengwang.org.cn/</t>
@@ -202,11 +193,53 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>dcflUsername</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcflUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcflPassword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123qwer@</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcfl.tax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.40.128.182:8080/core</t>
+  </si>
+  <si>
+    <t>crsUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crsUsername</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crsPassword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcfl202001</t>
+  </si>
+  <si>
+    <t>Bill0701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,11 +285,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -266,6 +300,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -314,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,9 +384,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,6 +436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,11 +628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -619,10 +690,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -638,17 +709,52 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1644,7 +1750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2857,10 +2963,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/DCFLCreditReferenceCenter/Data/Config.xlsx
+++ b/DCFLCreditReferenceCenter/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE2BF9C-2C1B-4587-96C6-8B0EF61995B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC53281-E02B-41BD-A2B2-8D189822322D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>123qwer@</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dcfl.tax</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,6 +229,10 @@
   </si>
   <si>
     <t>Bill0701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>987654321qwer@</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +632,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>49</v>
@@ -720,7 +720,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -736,23 +736,23 @@
         <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/DCFLCreditReferenceCenter/Data/Config.xlsx
+++ b/DCFLCreditReferenceCenter/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC53281-E02B-41BD-A2B2-8D189822322D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F37D5-B4A9-4E9C-8B73-350682DAF7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -228,11 +228,19 @@
     <t>dcfl202001</t>
   </si>
   <si>
-    <t>Bill0701</t>
+    <t>browserType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>987654321qwer@</t>
+    <t>Edge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill5566</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>987654321qwer#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +298,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -632,7 +640,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -736,7 +744,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -752,10 +760,17 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/DCFLCreditReferenceCenter/Data/Config.xlsx
+++ b/DCFLCreditReferenceCenter/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F37D5-B4A9-4E9C-8B73-350682DAF7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9579F1-1459-406A-B77B-04432C8E69EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -243,12 +243,19 @@
     <t>987654321qwer#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>现代迪万伦（北京）融资租赁有限公司</t>
+  </si>
+  <si>
+    <t>authName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,6 +279,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,12 +307,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -640,7 +655,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -771,7 +786,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/DCFLCreditReferenceCenter/Data/Config.xlsx
+++ b/DCFLCreditReferenceCenter/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9579F1-1459-406A-B77B-04432C8E69EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20174B32-1295-4F7F-AE6C-A7B78B50C06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -244,10 +244,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现代迪万伦（北京）融资租赁有限公司</t>
-  </si>
-  <si>
     <t>authName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾奇蒂现代（北京）融资租赁有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +656,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -788,10 +789,10 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
